--- a/config/DMSW.xlsx
+++ b/config/DMSW.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g0001959\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\vagrant\my-django-box\Rails_apps\nws\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1187">
   <si>
     <t>D2BRE05I0101</t>
   </si>
@@ -3567,6 +3567,24 @@
   </si>
   <si>
     <t>10.209.183.218</t>
+  </si>
+  <si>
+    <t>Sub-Anel</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>ANEL</t>
+  </si>
+  <si>
+    <t>CIDADE</t>
   </si>
 </sst>
 </file>
@@ -3576,7 +3594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3590,6 +3608,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -3625,10 +3651,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="3"/>
@@ -3917,13 +3945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G410"/>
+  <dimension ref="A1:G411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -3934,37 +3964,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1034</v>
@@ -3974,17 +4007,17 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>105</v>
+      <c r="A3" s="1" t="s">
+        <v>981</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>466</v>
+        <v>977</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1049</v>
+        <v>978</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>980</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1034</v>
@@ -3998,13 +4031,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>504</v>
+        <v>1049</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1034</v>
@@ -4018,13 +4051,13 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1034</v>
@@ -4038,13 +4071,13 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>357</v>
+        <v>1051</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1034</v>
@@ -4058,13 +4091,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1052</v>
+        <v>357</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1034</v>
@@ -4078,13 +4111,13 @@
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1034</v>
@@ -4098,13 +4131,13 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1034</v>
@@ -4118,13 +4151,13 @@
         <v>105</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>358</v>
+        <v>1054</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1034</v>
@@ -4138,13 +4171,13 @@
         <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1055</v>
+        <v>358</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1034</v>
@@ -4158,13 +4191,13 @@
         <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1034</v>
@@ -4178,13 +4211,13 @@
         <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>870</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>419</v>
+        <v>1056</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>869</v>
+        <v>510</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>1034</v>
@@ -4195,19 +4228,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>466</v>
+        <v>870</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>501</v>
+        <v>419</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1030</v>
@@ -4218,13 +4251,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1014</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>1013</v>
+        <v>501</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>1035</v>
@@ -4238,13 +4271,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>466</v>
+        <v>1014</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1057</v>
+        <v>1015</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1013</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>1035</v>
@@ -4258,13 +4291,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>513</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>516</v>
+        <v>1057</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>1035</v>
@@ -4278,13 +4311,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>1035</v>
@@ -4298,13 +4331,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>515</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1058</v>
+        <v>514</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1035</v>
@@ -4314,20 +4347,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>862</v>
+      <c r="A20" s="1">
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>466</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>865</v>
+        <v>1058</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>1030</v>
@@ -4338,13 +4371,13 @@
         <v>862</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>863</v>
+        <v>866</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>1036</v>
@@ -4358,13 +4391,13 @@
         <v>862</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>1036</v>
@@ -4378,13 +4411,13 @@
         <v>862</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>368</v>
+        <v>875</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1036</v>
@@ -4394,17 +4427,17 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>6</v>
+      <c r="A24" s="1" t="s">
+        <v>862</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>466</v>
+        <v>885</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>501</v>
+        <v>368</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>1036</v>
@@ -4418,13 +4451,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1036</v>
@@ -4438,13 +4471,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>518</v>
+        <v>114</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>519</v>
+        <v>360</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>1036</v>
@@ -4458,13 +4491,13 @@
         <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>518</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1043</v>
+        <v>519</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>1036</v>
@@ -4478,16 +4511,16 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>466</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>359</v>
+        <v>1043</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>1030</v>
@@ -4498,13 +4531,13 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>523</v>
+        <v>359</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>1037</v>
@@ -4518,13 +4551,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>1037</v>
@@ -4538,13 +4571,13 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>1037</v>
@@ -4558,13 +4591,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>1037</v>
@@ -4574,17 +4607,17 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>527</v>
+      <c r="A33" s="1">
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>466</v>
+        <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1044</v>
+        <v>364</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>1037</v>
@@ -4598,13 +4631,13 @@
         <v>527</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>530</v>
+        <v>1044</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>1037</v>
@@ -4618,13 +4651,13 @@
         <v>527</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>1037</v>
@@ -4638,13 +4671,13 @@
         <v>527</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>1037</v>
@@ -4658,13 +4691,13 @@
         <v>527</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>529</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>528</v>
+        <v>1047</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>1037</v>
@@ -4678,13 +4711,13 @@
         <v>527</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>529</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1048</v>
+        <v>528</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>1037</v>
@@ -4698,13 +4731,13 @@
         <v>527</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>834</v>
+        <v>120</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>835</v>
+        <v>1048</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>833</v>
+        <v>534</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>1037</v>
@@ -4718,13 +4751,13 @@
         <v>527</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>967</v>
+        <v>834</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>966</v>
+        <v>835</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>965</v>
+        <v>833</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>1037</v>
@@ -4734,20 +4767,20 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>1</v>
+      <c r="A41" s="1" t="s">
+        <v>527</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>466</v>
+        <v>967</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1059</v>
+        <v>966</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>965</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>1030</v>
@@ -4755,19 +4788,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>1030</v>
@@ -4778,13 +4811,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>537</v>
+        <v>1060</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>1039</v>
@@ -4798,13 +4831,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>291</v>
+        <v>122</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1061</v>
+        <v>365</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>1039</v>
@@ -4818,13 +4851,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>123</v>
+        <v>1061</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>1039</v>
@@ -4835,16 +4868,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>466</v>
+        <v>290</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>366</v>
+        <v>123</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>538</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>1039</v>
@@ -4858,13 +4891,13 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>539</v>
+        <v>366</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>1039</v>
@@ -4878,13 +4911,13 @@
         <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>127</v>
+        <v>367</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>1039</v>
@@ -4898,13 +4931,13 @@
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>544</v>
+        <v>126</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>543</v>
+        <v>127</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>828</v>
+        <v>540</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1039</v>
@@ -4918,13 +4951,13 @@
         <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>128</v>
+        <v>544</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>369</v>
+        <v>543</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>541</v>
+        <v>828</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1039</v>
@@ -4938,13 +4971,13 @@
         <v>13</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>369</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1039</v>
@@ -4955,16 +4988,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>466</v>
+        <v>129</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>370</v>
+        <v>130</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>542</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>1039</v>
@@ -4978,13 +5011,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>549</v>
+        <v>131</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>547</v>
+        <v>370</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>1039</v>
@@ -4998,13 +5031,13 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1039</v>
@@ -5018,13 +5051,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>132</v>
+        <v>550</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>371</v>
+        <v>546</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>1039</v>
@@ -5035,19 +5068,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>466</v>
+        <v>132</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1062</v>
+        <v>371</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>1030</v>
@@ -5058,13 +5091,13 @@
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>535</v>
+        <v>1062</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>1040</v>
@@ -5078,13 +5111,13 @@
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>552</v>
+        <v>372</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>1040</v>
@@ -5098,13 +5131,13 @@
         <v>10</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>375</v>
+        <v>552</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>1040</v>
@@ -5118,13 +5151,13 @@
         <v>10</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>912</v>
+        <v>553</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>1040</v>
@@ -5134,17 +5167,17 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>138</v>
+      <c r="A61" s="1">
+        <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>466</v>
+        <v>136</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>912</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>1040</v>
@@ -5158,13 +5191,13 @@
         <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>556</v>
+        <v>376</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>1040</v>
@@ -5178,13 +5211,13 @@
         <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>1040</v>
@@ -5198,13 +5231,13 @@
         <v>138</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>559</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>558</v>
+        <v>378</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>1040</v>
@@ -5218,13 +5251,13 @@
         <v>138</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>1040</v>
@@ -5238,13 +5271,13 @@
         <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>1040</v>
@@ -5258,13 +5291,13 @@
         <v>138</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>840</v>
+        <v>562</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>841</v>
+        <v>561</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>839</v>
+        <v>563</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>1040</v>
@@ -5274,17 +5307,17 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>22</v>
+      <c r="A68" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>466</v>
+        <v>840</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>964</v>
+        <v>841</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>839</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>1040</v>
@@ -5298,13 +5331,13 @@
         <v>22</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>955</v>
+        <v>957</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>1040</v>
@@ -5315,19 +5348,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>466</v>
+        <v>955</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>379</v>
+        <v>956</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>954</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>139</v>
+        <v>1040</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>1030</v>
@@ -5338,13 +5371,13 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>568</v>
+        <v>140</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>570</v>
+        <v>379</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>139</v>
@@ -5358,13 +5391,13 @@
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>141</v>
+        <v>568</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>380</v>
+        <v>567</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>139</v>
@@ -5378,13 +5411,13 @@
         <v>6</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>573</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>142</v>
+        <v>380</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>139</v>
@@ -5398,13 +5431,13 @@
         <v>6</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>914</v>
+        <v>573</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>913</v>
+        <v>142</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>915</v>
+        <v>571</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>139</v>
@@ -5415,19 +5448,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>466</v>
+        <v>914</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>381</v>
+        <v>913</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>915</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>1041</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>1030</v>
@@ -5438,13 +5471,13 @@
         <v>4</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>574</v>
+        <v>381</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>1041</v>
@@ -5458,13 +5491,13 @@
         <v>4</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>1041</v>
@@ -5478,13 +5511,13 @@
         <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>1041</v>
@@ -5498,13 +5531,13 @@
         <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>572</v>
+        <v>77</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>78</v>
+        <v>384</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>1041</v>
@@ -5518,13 +5551,13 @@
         <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>1041</v>
@@ -5538,13 +5571,13 @@
         <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>1041</v>
@@ -5558,13 +5591,13 @@
         <v>4</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>580</v>
+        <v>386</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>1041</v>
@@ -5575,16 +5608,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>466</v>
+        <v>581</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1063</v>
+        <v>580</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>582</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>1041</v>
@@ -5598,13 +5631,13 @@
         <v>8</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>292</v>
+        <v>143</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>584</v>
+        <v>1063</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>1041</v>
@@ -5618,13 +5651,13 @@
         <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>1041</v>
@@ -5638,13 +5671,13 @@
         <v>8</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>1041</v>
@@ -5658,13 +5691,13 @@
         <v>8</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>1041</v>
@@ -5678,13 +5711,13 @@
         <v>8</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>1041</v>
@@ -5698,13 +5731,13 @@
         <v>8</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>1041</v>
@@ -5718,13 +5751,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>1041</v>
@@ -5738,13 +5771,13 @@
         <v>8</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>1041</v>
@@ -5758,13 +5791,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>1041</v>
@@ -5778,13 +5811,13 @@
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>1041</v>
@@ -5794,17 +5827,17 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>144</v>
+      <c r="A94" s="1">
+        <v>8</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>466</v>
+        <v>301</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>387</v>
+        <v>1073</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>1041</v>
@@ -5818,13 +5851,13 @@
         <v>144</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>593</v>
+        <v>387</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>1041</v>
@@ -5838,13 +5871,13 @@
         <v>144</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>1041</v>
@@ -5858,13 +5891,13 @@
         <v>144</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>1041</v>
@@ -5878,13 +5911,13 @@
         <v>144</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>1041</v>
@@ -5898,13 +5931,13 @@
         <v>144</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>832</v>
+        <v>149</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>831</v>
+        <v>596</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>1041</v>
@@ -5918,13 +5951,13 @@
         <v>144</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>917</v>
+        <v>832</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>916</v>
+        <v>398</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>918</v>
+        <v>831</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>1041</v>
@@ -5934,20 +5967,20 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>1</v>
+      <c r="A101" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>466</v>
+        <v>917</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1074</v>
+        <v>916</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>918</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>1030</v>
@@ -5958,13 +5991,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>302</v>
+        <v>150</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>597</v>
+        <v>1074</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>1042</v>
@@ -5978,13 +6011,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>1042</v>
@@ -5998,13 +6031,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>1042</v>
@@ -6018,13 +6051,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>1042</v>
@@ -6038,13 +6071,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>1042</v>
@@ -6058,13 +6091,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>1042</v>
@@ -6078,13 +6111,13 @@
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>1042</v>
@@ -6098,13 +6131,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1031</v>
+        <v>603</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>1042</v>
@@ -6118,13 +6151,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>920</v>
+        <v>309</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>921</v>
+        <v>1082</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>919</v>
+        <v>1031</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>1042</v>
@@ -6135,16 +6168,16 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>466</v>
+        <v>920</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1083</v>
+        <v>921</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>919</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>1042</v>
@@ -6158,13 +6191,13 @@
         <v>14</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>502</v>
+        <v>81</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>604</v>
+        <v>1083</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>1042</v>
@@ -6178,13 +6211,13 @@
         <v>14</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>310</v>
+        <v>502</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>1032</v>
+        <v>604</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>1042</v>
@@ -6198,13 +6231,13 @@
         <v>14</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>605</v>
+        <v>1032</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>1042</v>
@@ -6218,13 +6251,13 @@
         <v>14</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>1042</v>
@@ -6238,13 +6271,13 @@
         <v>14</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>1042</v>
@@ -6258,13 +6291,13 @@
         <v>14</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>1042</v>
@@ -6278,13 +6311,13 @@
         <v>14</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>922</v>
+        <v>313</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>1042</v>
@@ -6295,19 +6328,16 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>466</v>
+        <v>922</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>393</v>
+        <v>1087</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>1033</v>
+        <v>606</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>1042</v>
@@ -6318,16 +6348,19 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1090</v>
+        <v>393</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1033</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1042</v>
@@ -6341,13 +6374,13 @@
         <v>19</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>314</v>
+        <v>152</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>609</v>
+        <v>1090</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>1042</v>
@@ -6361,13 +6394,13 @@
         <v>19</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1001</v>
+        <v>314</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>1042</v>
@@ -6381,13 +6414,13 @@
         <v>19</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>897</v>
+        <v>1001</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>896</v>
+        <v>610</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>1042</v>
@@ -6398,16 +6431,16 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>466</v>
+        <v>897</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>896</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>1042</v>
@@ -6421,13 +6454,13 @@
         <v>26</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>316</v>
+        <v>153</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>611</v>
+        <v>1094</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>1042</v>
@@ -6441,10 +6474,10 @@
         <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>394</v>
+        <v>1095</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>611</v>
@@ -6461,13 +6494,13 @@
         <v>26</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>923</v>
+        <v>154</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1096</v>
+        <v>394</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>924</v>
+        <v>611</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>1042</v>
@@ -6481,13 +6514,13 @@
         <v>26</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1024</v>
+        <v>923</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>1025</v>
+        <v>924</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>1042</v>
@@ -6498,16 +6531,16 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>466</v>
+        <v>1024</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>395</v>
+        <v>1097</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1025</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>1042</v>
@@ -6521,13 +6554,13 @@
         <v>30</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>612</v>
+        <v>395</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>1042</v>
@@ -6541,13 +6574,13 @@
         <v>30</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>1042</v>
@@ -6561,13 +6594,13 @@
         <v>30</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>1042</v>
@@ -6581,13 +6614,13 @@
         <v>30</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>1042</v>
@@ -6601,13 +6634,13 @@
         <v>30</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>1042</v>
@@ -6621,13 +6654,13 @@
         <v>30</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>1042</v>
@@ -6641,13 +6674,13 @@
         <v>30</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>1042</v>
@@ -6661,13 +6694,13 @@
         <v>30</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>830</v>
+        <v>403</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>829</v>
+        <v>618</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>1042</v>
@@ -6678,16 +6711,16 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>466</v>
+        <v>155</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>404</v>
+        <v>830</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>829</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>1042</v>
@@ -6701,13 +6734,13 @@
         <v>31</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>821</v>
+        <v>163</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>820</v>
+        <v>404</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>1042</v>
@@ -6718,16 +6751,16 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>466</v>
+        <v>821</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>406</v>
+        <v>822</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>820</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>1042</v>
@@ -6741,13 +6774,13 @@
         <v>57</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>619</v>
+        <v>406</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>1042</v>
@@ -6761,13 +6794,13 @@
         <v>57</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>1042</v>
@@ -6781,13 +6814,13 @@
         <v>57</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>1042</v>
@@ -6801,13 +6834,13 @@
         <v>57</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>1042</v>
@@ -6821,13 +6854,13 @@
         <v>57</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>1042</v>
@@ -6841,13 +6874,13 @@
         <v>57</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1042</v>
@@ -6861,13 +6894,13 @@
         <v>57</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>1042</v>
@@ -6881,13 +6914,13 @@
         <v>57</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>1042</v>
@@ -6901,13 +6934,13 @@
         <v>57</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>1042</v>
@@ -6918,16 +6951,16 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>466</v>
+        <v>165</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>627</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>1042</v>
@@ -6941,13 +6974,13 @@
         <v>61</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>628</v>
+        <v>416</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>1042</v>
@@ -6961,13 +6994,13 @@
         <v>61</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>1042</v>
@@ -6981,13 +7014,13 @@
         <v>61</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>87</v>
+        <v>418</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>1042</v>
@@ -7001,13 +7034,13 @@
         <v>61</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>420</v>
+        <v>87</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>1042</v>
@@ -7021,13 +7054,13 @@
         <v>61</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>1042</v>
@@ -7041,13 +7074,13 @@
         <v>61</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>873</v>
+        <v>84</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>872</v>
+        <v>421</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>871</v>
+        <v>632</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>1042</v>
@@ -7057,17 +7090,17 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>178</v>
+      <c r="A157" s="1">
+        <v>61</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>466</v>
+        <v>873</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>422</v>
+        <v>872</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>871</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1042</v>
@@ -7081,13 +7114,13 @@
         <v>178</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>640</v>
+        <v>422</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1042</v>
@@ -7101,13 +7134,13 @@
         <v>178</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>177</v>
+        <v>373</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>1042</v>
@@ -7121,13 +7154,13 @@
         <v>178</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>1042</v>
@@ -7141,13 +7174,13 @@
         <v>178</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>423</v>
+        <v>180</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>1042</v>
@@ -7161,13 +7194,13 @@
         <v>178</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>1042</v>
@@ -7181,13 +7214,13 @@
         <v>178</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>634</v>
+        <v>182</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>633</v>
+        <v>183</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>1042</v>
@@ -7201,13 +7234,13 @@
         <v>178</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>889</v>
+        <v>634</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>191</v>
+        <v>633</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>888</v>
+        <v>635</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>1042</v>
@@ -7218,16 +7251,16 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>466</v>
+        <v>889</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>425</v>
+        <v>191</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>888</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>1042</v>
@@ -7241,13 +7274,13 @@
         <v>187</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>643</v>
+        <v>425</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>1042</v>
@@ -7261,13 +7294,13 @@
         <v>187</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>1042</v>
@@ -7281,13 +7314,13 @@
         <v>187</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>642</v>
+        <v>186</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>641</v>
+        <v>427</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>1042</v>
@@ -7301,13 +7334,13 @@
         <v>187</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>838</v>
+        <v>642</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>837</v>
+        <v>641</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>836</v>
+        <v>645</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>1042</v>
@@ -7318,16 +7351,16 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>466</v>
+        <v>838</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>189</v>
+        <v>837</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>836</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>1042</v>
@@ -7341,13 +7374,13 @@
         <v>190</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>647</v>
+        <v>188</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>594</v>
+        <v>189</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>1042</v>
@@ -7361,13 +7394,13 @@
         <v>190</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>192</v>
+        <v>647</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>193</v>
+        <v>646</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>648</v>
+        <v>594</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>1042</v>
@@ -7381,13 +7414,13 @@
         <v>190</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>824</v>
+        <v>192</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>825</v>
+        <v>193</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>823</v>
+        <v>648</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>1042</v>
@@ -7401,13 +7434,13 @@
         <v>190</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>1042</v>
@@ -7421,13 +7454,13 @@
         <v>190</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>906</v>
+        <v>851</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>907</v>
+        <v>852</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>1042</v>
@@ -7441,13 +7474,13 @@
         <v>190</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>1042</v>
@@ -7461,13 +7494,13 @@
         <v>190</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>990</v>
+        <v>926</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>991</v>
+        <v>927</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>989</v>
+        <v>925</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>1042</v>
@@ -7477,20 +7510,20 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>2</v>
+      <c r="A178" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>466</v>
+        <v>990</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1098</v>
+        <v>991</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>989</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>194</v>
+        <v>1042</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>1030</v>
@@ -7501,13 +7534,13 @@
         <v>2</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>650</v>
+        <v>1098</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>194</v>
@@ -7521,13 +7554,13 @@
         <v>2</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>317</v>
+        <v>652</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>194</v>
@@ -7538,19 +7571,16 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>466</v>
+        <v>317</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>196</v>
+        <v>1100</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>194</v>
@@ -7560,17 +7590,20 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>200</v>
+      <c r="A182" s="1">
+        <v>7</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1101</v>
+        <v>196</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>194</v>
@@ -7584,13 +7617,13 @@
         <v>200</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>318</v>
+        <v>197</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>654</v>
+        <v>1101</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>194</v>
@@ -7604,13 +7637,13 @@
         <v>200</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>198</v>
+        <v>318</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>194</v>
@@ -7624,13 +7657,13 @@
         <v>200</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>194</v>
@@ -7644,13 +7677,13 @@
         <v>200</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1027</v>
+        <v>199</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>1104</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>1026</v>
+        <v>656</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>194</v>
@@ -7660,17 +7693,17 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>14</v>
+      <c r="A187" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>466</v>
+        <v>1027</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1026</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>194</v>
@@ -7684,13 +7717,13 @@
         <v>14</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>657</v>
+        <v>1105</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>194</v>
@@ -7704,13 +7737,13 @@
         <v>14</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>194</v>
@@ -7724,13 +7757,13 @@
         <v>14</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>194</v>
@@ -7744,13 +7777,13 @@
         <v>14</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>194</v>
@@ -7764,13 +7797,13 @@
         <v>14</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>928</v>
+        <v>660</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>194</v>
@@ -7784,13 +7817,13 @@
         <v>14</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>628</v>
+        <v>928</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>194</v>
@@ -7804,13 +7837,13 @@
         <v>14</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>877</v>
+        <v>91</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>878</v>
+        <v>628</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>194</v>
@@ -7824,13 +7857,13 @@
         <v>14</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>904</v>
+        <v>877</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>903</v>
+        <v>878</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>194</v>
@@ -7841,13 +7874,16 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>201</v>
+        <v>904</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>903</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>194</v>
@@ -7861,13 +7897,10 @@
         <v>24</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>662</v>
+        <v>1114</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>194</v>
@@ -7881,13 +7914,13 @@
         <v>24</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>194</v>
@@ -7901,13 +7934,13 @@
         <v>24</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>194</v>
@@ -7921,13 +7954,13 @@
         <v>24</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>194</v>
@@ -7941,13 +7974,13 @@
         <v>24</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>661</v>
+        <v>319</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>194</v>
@@ -7961,13 +7994,13 @@
         <v>24</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>205</v>
+        <v>661</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>194</v>
@@ -7981,13 +8014,13 @@
         <v>24</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>930</v>
+        <v>205</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>929</v>
+        <v>667</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>194</v>
@@ -7997,23 +8030,20 @@
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>209</v>
+      <c r="A204" s="1">
+        <v>24</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>466</v>
+        <v>930</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>437</v>
+        <v>1121</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>653</v>
+        <v>929</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>1030</v>
@@ -8024,13 +8054,16 @@
         <v>209</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>206</v>
@@ -8040,20 +8073,17 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>22</v>
+      <c r="A206" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>466</v>
+        <v>208</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>1122</v>
+        <v>438</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>206</v>
@@ -8067,13 +8097,16 @@
         <v>22</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>206</v>
@@ -8084,19 +8117,16 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>466</v>
+        <v>211</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>672</v>
+        <v>1123</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>206</v>
@@ -8110,13 +8140,16 @@
         <v>40</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>1124</v>
+        <v>672</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>206</v>
@@ -8127,16 +8160,16 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>466</v>
+        <v>673</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>670</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>206</v>
@@ -8150,13 +8183,13 @@
         <v>45</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>674</v>
+        <v>1125</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>206</v>
@@ -8170,13 +8203,13 @@
         <v>45</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>206</v>
@@ -8190,13 +8223,13 @@
         <v>45</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>1126</v>
+        <v>440</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>206</v>
@@ -8210,13 +8243,13 @@
         <v>45</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>206</v>
@@ -8230,13 +8263,13 @@
         <v>45</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>218</v>
+        <v>1127</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>206</v>
@@ -8250,13 +8283,13 @@
         <v>45</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>441</v>
+        <v>218</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>206</v>
@@ -8270,13 +8303,13 @@
         <v>45</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>222</v>
+        <v>441</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>206</v>
@@ -8290,13 +8323,13 @@
         <v>45</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>1128</v>
+        <v>222</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>206</v>
@@ -8310,13 +8343,13 @@
         <v>45</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>442</v>
+        <v>1128</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>206</v>
@@ -8330,13 +8363,13 @@
         <v>45</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>206</v>
@@ -8350,13 +8383,13 @@
         <v>45</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>1129</v>
+        <v>443</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>206</v>
@@ -8367,16 +8400,16 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>466</v>
+        <v>225</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>684</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>206</v>
@@ -8390,13 +8423,13 @@
         <v>48</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>320</v>
+        <v>226</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>685</v>
+        <v>1130</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>206</v>
@@ -8410,13 +8443,13 @@
         <v>48</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>206</v>
@@ -8430,13 +8463,13 @@
         <v>48</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>444</v>
+        <v>1132</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>206</v>
@@ -8450,13 +8483,13 @@
         <v>48</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>1133</v>
+        <v>444</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>206</v>
@@ -8470,13 +8503,13 @@
         <v>48</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>229</v>
+        <v>1133</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>206</v>
@@ -8490,13 +8523,13 @@
         <v>48</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>323</v>
+        <v>228</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>1134</v>
+        <v>229</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>206</v>
@@ -8510,13 +8543,13 @@
         <v>48</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>230</v>
+        <v>323</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>445</v>
+        <v>1134</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>206</v>
@@ -8530,13 +8563,13 @@
         <v>48</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>324</v>
+        <v>230</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>1135</v>
+        <v>445</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>206</v>
@@ -8550,13 +8583,13 @@
         <v>48</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>206</v>
@@ -8570,13 +8603,13 @@
         <v>48</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>206</v>
@@ -8587,16 +8620,16 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>466</v>
+        <v>326</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>206</v>
@@ -8610,13 +8643,13 @@
         <v>52</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>698</v>
+        <v>1138</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>206</v>
@@ -8630,13 +8663,13 @@
         <v>52</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>555</v>
+        <v>698</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>206</v>
@@ -8650,13 +8683,13 @@
         <v>52</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>699</v>
+        <v>555</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>206</v>
@@ -8670,13 +8703,13 @@
         <v>52</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>696</v>
+        <v>327</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>500</v>
+        <v>234</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>206</v>
@@ -8690,13 +8723,13 @@
         <v>52</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>1139</v>
+        <v>500</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>206</v>
@@ -8710,13 +8743,13 @@
         <v>52</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>206</v>
@@ -8730,13 +8763,13 @@
         <v>52</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>895</v>
+        <v>697</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>893</v>
+        <v>1140</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>894</v>
+        <v>701</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>206</v>
@@ -8750,13 +8783,13 @@
         <v>52</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>933</v>
+        <v>895</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>935</v>
+        <v>893</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>206</v>
@@ -8770,13 +8803,13 @@
         <v>52</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>424</v>
+        <v>935</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>206</v>
@@ -8790,13 +8823,13 @@
         <v>52</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1010</v>
+        <v>934</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>1141</v>
+        <v>424</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1009</v>
+        <v>932</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>206</v>
@@ -8806,17 +8839,17 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>842</v>
+      <c r="A244" s="1">
+        <v>52</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>466</v>
+        <v>1010</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>456</v>
+        <v>1141</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1009</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>206</v>
@@ -8830,13 +8863,13 @@
         <v>842</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>843</v>
+        <v>456</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>206</v>
@@ -8850,13 +8883,13 @@
         <v>842</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>206</v>
@@ -8870,13 +8903,13 @@
         <v>842</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>206</v>
@@ -8887,16 +8920,16 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>986</v>
+        <v>842</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>984</v>
+        <v>853</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>987</v>
+        <v>854</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>982</v>
+        <v>855</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>206</v>
@@ -8907,16 +8940,16 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>842</v>
+        <v>986</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>206</v>
@@ -8926,23 +8959,20 @@
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>3</v>
+      <c r="A250" s="1" t="s">
+        <v>842</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>466</v>
+        <v>985</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>1142</v>
+        <v>988</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>653</v>
+        <v>983</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>1030</v>
@@ -8953,13 +8983,16 @@
         <v>3</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>702</v>
+        <v>237</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>703</v>
+        <v>653</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>236</v>
@@ -8970,16 +9003,16 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>466</v>
+        <v>702</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>448</v>
+        <v>1143</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>703</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>236</v>
@@ -8993,13 +9026,13 @@
         <v>13</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>704</v>
+        <v>448</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>236</v>
@@ -9009,17 +9042,17 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>242</v>
+      <c r="A254" s="1">
+        <v>13</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>466</v>
+        <v>239</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>241</v>
+        <v>450</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>236</v>
@@ -9033,13 +9066,13 @@
         <v>242</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>705</v>
+        <v>241</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>236</v>
@@ -9053,13 +9086,13 @@
         <v>242</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>236</v>
@@ -9073,13 +9106,13 @@
         <v>242</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>886</v>
+        <v>246</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>887</v>
+        <v>245</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>884</v>
+        <v>706</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>236</v>
@@ -9089,20 +9122,20 @@
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>13</v>
+      <c r="A258" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>466</v>
+        <v>886</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>459</v>
+        <v>887</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>884</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>1030</v>
@@ -9113,13 +9146,13 @@
         <v>13</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>709</v>
+        <v>459</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>247</v>
@@ -9133,13 +9166,13 @@
         <v>13</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>99</v>
+        <v>455</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>247</v>
@@ -9153,13 +9186,13 @@
         <v>13</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>458</v>
+        <v>99</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>247</v>
@@ -9173,13 +9206,13 @@
         <v>13</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>247</v>
@@ -9193,13 +9226,13 @@
         <v>13</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>708</v>
+        <v>101</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>707</v>
+        <v>457</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>247</v>
@@ -9213,13 +9246,13 @@
         <v>13</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>102</v>
+        <v>708</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>289</v>
+        <v>707</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>247</v>
@@ -9233,13 +9266,13 @@
         <v>13</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>937</v>
+        <v>102</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>936</v>
+        <v>289</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>938</v>
+        <v>714</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>247</v>
@@ -9249,17 +9282,17 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>908</v>
+      <c r="A266" s="1">
+        <v>13</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>466</v>
+        <v>937</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>1144</v>
+        <v>936</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>938</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>247</v>
@@ -9273,13 +9306,13 @@
         <v>908</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>910</v>
+        <v>911</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>909</v>
+        <v>1144</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>247</v>
@@ -9293,13 +9326,13 @@
         <v>908</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>953</v>
+        <v>910</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>952</v>
+        <v>909</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>247</v>
@@ -9313,13 +9346,13 @@
         <v>908</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1008</v>
+        <v>953</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>1007</v>
+        <v>952</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>247</v>
@@ -9329,17 +9362,17 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>28</v>
+      <c r="A270" s="1" t="s">
+        <v>908</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>466</v>
+        <v>1008</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>1007</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>247</v>
@@ -9353,13 +9386,13 @@
         <v>28</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>939</v>
+        <v>1148</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>247</v>
@@ -9370,19 +9403,19 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>466</v>
+        <v>940</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>939</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>1030</v>
@@ -9393,13 +9426,13 @@
         <v>41</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E273" s="1" t="s">
-        <v>715</v>
+        <v>1150</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>259</v>
@@ -9413,13 +9446,13 @@
         <v>41</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>328</v>
+        <v>249</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>1151</v>
+        <v>250</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>259</v>
@@ -9433,13 +9466,13 @@
         <v>41</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>460</v>
+        <v>1151</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>259</v>
@@ -9453,13 +9486,13 @@
         <v>41</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>329</v>
+        <v>251</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>1152</v>
+        <v>460</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>259</v>
@@ -9473,13 +9506,13 @@
         <v>41</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>253</v>
+        <v>1152</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>259</v>
@@ -9493,13 +9526,13 @@
         <v>41</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>259</v>
@@ -9513,13 +9546,13 @@
         <v>41</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>1153</v>
+        <v>461</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>259</v>
@@ -9533,13 +9566,13 @@
         <v>41</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>330</v>
+        <v>255</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>259</v>
@@ -9553,13 +9586,13 @@
         <v>41</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>462</v>
+        <v>1154</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>259</v>
@@ -9573,13 +9606,13 @@
         <v>41</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>880</v>
+        <v>256</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>881</v>
+        <v>462</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>879</v>
+        <v>723</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>259</v>
@@ -9589,17 +9622,17 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>976</v>
+      <c r="A283" s="1">
+        <v>41</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>971</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>466</v>
+        <v>880</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>972</v>
+        <v>881</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>879</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>259</v>
@@ -9613,13 +9646,13 @@
         <v>976</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>969</v>
+        <v>971</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>259</v>
@@ -9633,13 +9666,13 @@
         <v>976</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>259</v>
@@ -9650,19 +9683,19 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>942</v>
+        <v>976</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>945</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>466</v>
+        <v>974</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>946</v>
+        <v>973</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>975</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>1030</v>
@@ -9673,13 +9706,13 @@
         <v>942</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>944</v>
+        <v>945</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>260</v>
@@ -9689,17 +9722,17 @@
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>12</v>
+      <c r="A288" s="1" t="s">
+        <v>942</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>466</v>
+        <v>944</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>1155</v>
+        <v>449</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>943</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>260</v>
@@ -9713,13 +9746,13 @@
         <v>12</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>258</v>
+        <v>463</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>725</v>
+        <v>1155</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>260</v>
@@ -9733,13 +9766,13 @@
         <v>12</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1028</v>
+        <v>258</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>1156</v>
+        <v>464</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>260</v>
@@ -9750,16 +9783,16 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>466</v>
+        <v>1028</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>465</v>
+        <v>1156</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>724</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>260</v>
@@ -9773,13 +9806,13 @@
         <v>13</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>727</v>
+        <v>103</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E292" s="1" t="s">
-        <v>728</v>
+        <v>465</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>260</v>
@@ -9793,13 +9826,13 @@
         <v>13</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>868</v>
+        <v>727</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>447</v>
+        <v>726</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>867</v>
+        <v>728</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>260</v>
@@ -9813,13 +9846,13 @@
         <v>13</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>260</v>
@@ -9830,22 +9863,19 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>466</v>
+        <v>902</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>1157</v>
+        <v>405</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>653</v>
+        <v>901</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>1030</v>
@@ -9856,13 +9886,16 @@
         <v>103</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>729</v>
+        <v>653</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>261</v>
@@ -9873,16 +9906,16 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>466</v>
+        <v>263</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>729</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>261</v>
@@ -9896,13 +9929,13 @@
         <v>105</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="E298" s="1" t="s">
-        <v>730</v>
+        <v>1159</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>261</v>
@@ -9912,17 +9945,17 @@
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>268</v>
+      <c r="A299" s="1">
+        <v>105</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>466</v>
+        <v>265</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>261</v>
@@ -9936,13 +9969,13 @@
         <v>268</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>730</v>
+        <v>1161</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>261</v>
@@ -9952,17 +9985,17 @@
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
-        <v>3</v>
+      <c r="A301" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>466</v>
+        <v>267</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>454</v>
+        <v>1162</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>730</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>261</v>
@@ -9976,13 +10009,13 @@
         <v>3</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="E302" s="1" t="s">
-        <v>731</v>
+        <v>454</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>261</v>
@@ -9996,13 +10029,13 @@
         <v>3</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>1163</v>
+        <v>271</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>261</v>
@@ -10016,13 +10049,13 @@
         <v>3</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>453</v>
+        <v>1163</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>261</v>
@@ -10036,13 +10069,13 @@
         <v>3</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>261</v>
@@ -10056,13 +10089,13 @@
         <v>3</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>261</v>
@@ -10076,13 +10109,13 @@
         <v>3</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>827</v>
+        <v>274</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>1164</v>
+        <v>452</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>826</v>
+        <v>734</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>261</v>
@@ -10093,19 +10126,16 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>466</v>
+        <v>827</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>436</v>
+        <v>1164</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>653</v>
+        <v>826</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>261</v>
@@ -10119,13 +10149,16 @@
         <v>5</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>736</v>
+        <v>257</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>737</v>
+        <v>653</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>261</v>
@@ -10136,16 +10169,16 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>466</v>
+        <v>736</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>1165</v>
+        <v>435</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>737</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>261</v>
@@ -10159,13 +10192,13 @@
         <v>7</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="E311" s="1" t="s">
-        <v>738</v>
+        <v>1165</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>261</v>
@@ -10179,13 +10212,13 @@
         <v>7</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>261</v>
@@ -10199,13 +10232,13 @@
         <v>7</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>261</v>
@@ -10219,13 +10252,13 @@
         <v>7</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>104</v>
+        <v>334</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>261</v>
@@ -10239,13 +10272,13 @@
         <v>7</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>261</v>
@@ -10259,13 +10292,13 @@
         <v>7</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>105</v>
+        <v>335</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>261</v>
@@ -10279,13 +10312,13 @@
         <v>7</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>336</v>
+        <v>105</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>261</v>
@@ -10299,13 +10332,13 @@
         <v>7</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>261</v>
@@ -10319,13 +10352,13 @@
         <v>7</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>261</v>
@@ -10336,19 +10369,16 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>466</v>
+        <v>338</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>428</v>
+        <v>1174</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>261</v>
@@ -10358,17 +10388,20 @@
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>277</v>
+      <c r="A321" s="1">
+        <v>9</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>261</v>
@@ -10382,13 +10415,13 @@
         <v>277</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>747</v>
+        <v>434</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>261</v>
@@ -10402,13 +10435,13 @@
         <v>277</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>109</v>
+        <v>433</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>261</v>
@@ -10422,13 +10455,13 @@
         <v>277</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>751</v>
+        <v>108</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>432</v>
+        <v>109</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>261</v>
@@ -10442,13 +10475,13 @@
         <v>277</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>110</v>
+        <v>751</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>111</v>
+        <v>432</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>261</v>
@@ -10462,13 +10495,13 @@
         <v>277</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>883</v>
+        <v>110</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>389</v>
+        <v>111</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>882</v>
+        <v>750</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>261</v>
@@ -10482,13 +10515,13 @@
         <v>277</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>892</v>
+        <v>389</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>261</v>
@@ -10502,13 +10535,13 @@
         <v>277</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>261</v>
@@ -10519,16 +10552,16 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>466</v>
+        <v>900</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>431</v>
+        <v>899</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>261</v>
@@ -10542,13 +10575,13 @@
         <v>283</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>752</v>
+        <v>431</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>261</v>
@@ -10562,13 +10595,13 @@
         <v>283</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>261</v>
@@ -10582,13 +10615,13 @@
         <v>283</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>429</v>
+        <v>281</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>261</v>
@@ -10602,13 +10635,13 @@
         <v>283</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>857</v>
+        <v>282</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>858</v>
+        <v>429</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>856</v>
+        <v>754</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>261</v>
@@ -10622,13 +10655,13 @@
         <v>283</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>959</v>
+        <v>857</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>958</v>
+        <v>858</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>960</v>
+        <v>856</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>261</v>
@@ -10642,13 +10675,13 @@
         <v>283</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>261</v>
@@ -10658,34 +10691,34 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="B336" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="F336" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
-        <v>30</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="D337" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E337" s="1" t="s">
-        <v>950</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>860</v>
@@ -10695,17 +10728,17 @@
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
-        <v>288</v>
+      <c r="A338" s="1">
+        <v>30</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>466</v>
+        <v>951</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>1176</v>
+        <v>1145</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>950</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>860</v>
@@ -10719,13 +10752,13 @@
         <v>288</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E339" s="1" t="s">
-        <v>756</v>
+        <v>1176</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>860</v>
@@ -10739,13 +10772,13 @@
         <v>288</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>860</v>
@@ -10759,13 +10792,13 @@
         <v>288</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>860</v>
@@ -10779,13 +10812,13 @@
         <v>288</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>755</v>
+        <v>287</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>860</v>
@@ -10795,23 +10828,23 @@
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
-        <v>5</v>
+      <c r="A343" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>466</v>
+        <v>755</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1003</v>
+        <v>1180</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>759</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>773</v>
+        <v>860</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
@@ -10819,13 +10852,13 @@
         <v>5</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1005</v>
+        <v>1002</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>773</v>
@@ -10839,13 +10872,13 @@
         <v>5</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>773</v>
@@ -10859,13 +10892,13 @@
         <v>5</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>466</v>
+        <v>1020</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>997</v>
+        <v>1021</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>1022</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>773</v>
@@ -10879,13 +10912,13 @@
         <v>5</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>994</v>
+        <v>996</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="E347" s="1" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>773</v>
@@ -10899,13 +10932,13 @@
         <v>5</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>773</v>
@@ -10919,13 +10952,13 @@
         <v>5</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>773</v>
@@ -10939,13 +10972,13 @@
         <v>5</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>466</v>
+        <v>1019</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>467</v>
+        <v>999</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>1018</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>773</v>
@@ -10959,13 +10992,13 @@
         <v>5</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E351" s="1" t="s">
-        <v>760</v>
+        <v>467</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>773</v>
@@ -10979,13 +11012,13 @@
         <v>5</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>773</v>
@@ -10999,13 +11032,13 @@
         <v>5</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>773</v>
@@ -11019,13 +11052,13 @@
         <v>5</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>5</v>
+        <v>470</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>773</v>
@@ -11039,13 +11072,13 @@
         <v>5</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>773</v>
@@ -11059,13 +11092,13 @@
         <v>5</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1017</v>
+        <v>340</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>490</v>
+        <v>4</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>1016</v>
+        <v>764</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>773</v>
@@ -11079,13 +11112,13 @@
         <v>5</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>773</v>
@@ -11096,16 +11129,16 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>466</v>
+        <v>1011</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>1012</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>773</v>
@@ -11119,13 +11152,13 @@
         <v>6</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>765</v>
+        <v>472</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>773</v>
@@ -11139,13 +11172,13 @@
         <v>6</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>9</v>
+        <v>473</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>773</v>
@@ -11159,13 +11192,13 @@
         <v>6</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>474</v>
+        <v>9</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>773</v>
@@ -11179,13 +11212,13 @@
         <v>6</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>773</v>
@@ -11199,13 +11232,13 @@
         <v>6</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>773</v>
@@ -11219,13 +11252,13 @@
         <v>6</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>773</v>
@@ -11239,13 +11272,13 @@
         <v>6</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>771</v>
+        <v>11</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>773</v>
@@ -11256,16 +11289,16 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>466</v>
+        <v>771</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>478</v>
+        <v>494</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>773</v>
@@ -11279,13 +11312,13 @@
         <v>7</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>341</v>
+        <v>14</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>776</v>
+        <v>478</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>773</v>
@@ -11299,13 +11332,13 @@
         <v>7</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>773</v>
@@ -11319,13 +11352,13 @@
         <v>7</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>687</v>
+        <v>777</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>773</v>
@@ -11339,13 +11372,13 @@
         <v>7</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>778</v>
+        <v>687</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>773</v>
@@ -11359,13 +11392,13 @@
         <v>7</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>773</v>
@@ -11379,13 +11412,13 @@
         <v>7</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>774</v>
+        <v>345</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>773</v>
@@ -11396,19 +11429,16 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>466</v>
+        <v>774</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>780</v>
+        <v>15</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>773</v>
@@ -11418,20 +11448,20 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
-        <v>23</v>
+      <c r="A374" s="1">
+        <v>11</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>21</v>
+        <v>1023</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>479</v>
+        <v>780</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>773</v>
@@ -11445,13 +11475,16 @@
         <v>23</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>733</v>
+        <v>782</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>773</v>
@@ -11461,17 +11494,17 @@
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
-        <v>20</v>
+      <c r="A376" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>466</v>
+        <v>22</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>733</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>773</v>
@@ -11485,13 +11518,13 @@
         <v>20</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>783</v>
+        <v>481</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>773</v>
@@ -11505,13 +11538,13 @@
         <v>20</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>773</v>
@@ -11525,13 +11558,13 @@
         <v>20</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>773</v>
@@ -11545,13 +11578,13 @@
         <v>20</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>773</v>
@@ -11562,19 +11595,16 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>466</v>
+        <v>28</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>788</v>
+        <v>484</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>773</v>
@@ -11585,16 +11615,19 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>29</v>
+        <v>789</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>486</v>
+        <v>788</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>787</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>773</v>
@@ -11608,13 +11641,13 @@
         <v>25</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>346</v>
+        <v>29</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E383" s="1" t="s">
-        <v>791</v>
+        <v>486</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>773</v>
@@ -11628,13 +11661,13 @@
         <v>25</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>773</v>
@@ -11648,13 +11681,13 @@
         <v>25</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>773</v>
@@ -11668,13 +11701,13 @@
         <v>25</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>773</v>
@@ -11688,13 +11721,13 @@
         <v>25</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>773</v>
@@ -11708,13 +11741,13 @@
         <v>25</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>773</v>
@@ -11728,13 +11761,13 @@
         <v>25</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>773</v>
@@ -11748,13 +11781,13 @@
         <v>25</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>773</v>
@@ -11768,13 +11801,13 @@
         <v>25</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>948</v>
+        <v>353</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>949</v>
+        <v>36</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>947</v>
+        <v>797</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>773</v>
@@ -11785,19 +11818,16 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>466</v>
+        <v>948</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>487</v>
+        <v>949</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>782</v>
+        <v>947</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>773</v>
@@ -11811,13 +11841,16 @@
         <v>27</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>773</v>
@@ -11827,20 +11860,17 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>801</v>
+      <c r="A394" s="1">
+        <v>27</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>466</v>
+        <v>37</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>799</v>
+        <v>488</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>628</v>
+        <v>798</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>773</v>
@@ -11850,17 +11880,20 @@
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
-        <v>30</v>
+      <c r="A395" s="1" t="s">
+        <v>801</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>39</v>
+        <v>800</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>466</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>489</v>
+        <v>799</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>628</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>773</v>
@@ -11874,13 +11907,13 @@
         <v>30</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="E396" s="1" t="s">
-        <v>802</v>
+        <v>489</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>773</v>
@@ -11894,13 +11927,13 @@
         <v>30</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>773</v>
@@ -11914,13 +11947,13 @@
         <v>30</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>773</v>
@@ -11934,13 +11967,13 @@
         <v>30</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>43</v>
+        <v>493</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>773</v>
@@ -11954,13 +11987,13 @@
         <v>30</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>495</v>
+        <v>43</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>773</v>
@@ -11970,20 +12003,17 @@
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
-        <v>812</v>
+      <c r="A401" s="1">
+        <v>30</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>466</v>
+        <v>45</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>808</v>
+        <v>495</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>773</v>
@@ -11997,13 +12027,16 @@
         <v>812</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>773</v>
@@ -12013,17 +12046,17 @@
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
-        <v>36</v>
+      <c r="A403" s="1" t="s">
+        <v>812</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>466</v>
+        <v>809</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>355</v>
+        <v>807</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>810</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>773</v>
@@ -12037,13 +12070,13 @@
         <v>36</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>466</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="E404" s="1" t="s">
-        <v>813</v>
+        <v>355</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>773</v>
@@ -12057,13 +12090,13 @@
         <v>36</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>496</v>
+        <v>356</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>773</v>
@@ -12077,13 +12110,13 @@
         <v>36</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>354</v>
+        <v>496</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>773</v>
@@ -12097,13 +12130,13 @@
         <v>36</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>497</v>
+        <v>354</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>773</v>
@@ -12117,13 +12150,13 @@
         <v>36</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>773</v>
@@ -12137,13 +12170,13 @@
         <v>36</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>52</v>
+        <v>498</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>773</v>
@@ -12157,18 +12190,38 @@
         <v>36</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>499</v>
+        <v>52</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>773</v>
       </c>
       <c r="G410" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A411" s="1">
+        <v>36</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G411" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
